--- a/results/multilingual-e5-large/PoliTo_evaluation_metrics.xlsx
+++ b/results/multilingual-e5-large/PoliTo_evaluation_metrics.xlsx
@@ -711,94 +711,94 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01428571428571429</v>
+        <v>0.005423728813559322</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.008700338983050847</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0179</v>
+        <v>0.0067</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.004067796610169492</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04365238095238096</v>
+        <v>0.01350305084745763</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0187</v>
+        <v>0.0063</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01111190476190476</v>
+        <v>0.004520677966101694</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06746190476190476</v>
+        <v>0.02197762711864407</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0191</v>
+        <v>0.0075</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008333333333333333</v>
+        <v>0.004406779661016952</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06746190476190476</v>
+        <v>0.02807932203389831</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0148</v>
+        <v>0.0076</v>
       </c>
       <c r="O3" t="n">
-        <v>0.007619047619047619</v>
+        <v>0.003796610169491527</v>
       </c>
       <c r="P3" t="n">
-        <v>0.07222380952380952</v>
+        <v>0.02943525423728814</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0138</v>
+        <v>0.0067</v>
       </c>
       <c r="R3" t="n">
-        <v>0.00714047619047619</v>
+        <v>0.003387796610169492</v>
       </c>
       <c r="S3" t="n">
-        <v>0.09603333333333335</v>
+        <v>0.03350305084745764</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0133</v>
+        <v>0.0062</v>
       </c>
       <c r="U3" t="n">
-        <v>0.006804761904761905</v>
+        <v>0.003101016949152541</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1007952380952381</v>
+        <v>0.03587593220338984</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0127</v>
+        <v>0.0057</v>
       </c>
       <c r="X3" t="n">
-        <v>0.005952380952380952</v>
+        <v>0.002796610169491527</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1007952380952381</v>
+        <v>0.03672338983050848</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0112</v>
+        <v>0.0052</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.005285714285714286</v>
+        <v>0.002633898305084746</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1007952380952381</v>
+        <v>0.03909627118644068</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.01</v>
+        <v>0.0049</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.004761904761904762</v>
+        <v>0.002440677966101697</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1007952380952381</v>
+        <v>0.04079118644067797</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0091</v>
+        <v>0.0046</v>
       </c>
     </row>
     <row r="4">
@@ -813,94 +813,94 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.06628352490421492</v>
+        <v>0.06457307060755758</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1878575191570881</v>
+        <v>0.1792888478379843</v>
       </c>
       <c r="E4" t="n">
-        <v>0.098</v>
+        <v>0.0949</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04315134099616836</v>
+        <v>0.04211822660098914</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2358288793103449</v>
+        <v>0.2264571223316886</v>
       </c>
       <c r="H4" t="n">
-        <v>0.073</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0335038793103444</v>
+        <v>0.03236765188834575</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2678672413793105</v>
+        <v>0.2552796319102318</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0596</v>
+        <v>0.0575</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02761015325670465</v>
+        <v>0.02675150519978403</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2893259099616861</v>
+        <v>0.27729291187739</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0504</v>
+        <v>0.0488</v>
       </c>
       <c r="O4" t="n">
-        <v>0.024252873563218</v>
+        <v>0.02299671592775166</v>
       </c>
       <c r="P4" t="n">
-        <v>0.31327337164751</v>
+        <v>0.2939452312534163</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.045</v>
+        <v>0.0427</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02120498084291163</v>
+        <v>0.02029752326217747</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3267024904214563</v>
+        <v>0.3085631362889936</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0398</v>
+        <v>0.0381</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01904262452107272</v>
+        <v>0.01821742610837579</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3400050287356325</v>
+        <v>0.3208779488232031</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0361</v>
+        <v>0.0345</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01725335249042115</v>
+        <v>0.01652298850574912</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.3497334770114947</v>
+        <v>0.3309320265462466</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0329</v>
+        <v>0.0315</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.01594018199233745</v>
+        <v>0.01518046661193117</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.3600222222222227</v>
+        <v>0.3402637520525414</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0305</v>
+        <v>0.0291</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0147988505747124</v>
+        <v>0.01409277504105217</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.3685158524904219</v>
+        <v>0.3487329844006529</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0285</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="5">
@@ -915,94 +915,94 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.07404891304347722</v>
+        <v>0.07500121282686618</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2006371942934785</v>
+        <v>0.2039912385387807</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1082</v>
+        <v>0.1097</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0490489130434773</v>
+        <v>0.04986658904575474</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2601654891304353</v>
+        <v>0.2612061757143496</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0825</v>
+        <v>0.0837</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03766993885869509</v>
+        <v>0.03851485470334057</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2932630095108701</v>
+        <v>0.2966181827002337</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0668</v>
+        <v>0.0682</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03084239130434706</v>
+        <v>0.03184883326056275</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3158439198369571</v>
+        <v>0.3225257507398214</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0562</v>
+        <v>0.058</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02654891304347838</v>
+        <v>0.02733614709164316</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3355521739130441</v>
+        <v>0.3422189637607313</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0492</v>
+        <v>0.0506</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02342527173912968</v>
+        <v>0.02401646533740845</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3529035665760877</v>
+        <v>0.3582419444040158</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0439</v>
+        <v>0.045</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02112690217391249</v>
+        <v>0.02158156018046582</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3677447010869573</v>
+        <v>0.3723126231019254</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04</v>
+        <v>0.0408</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01921705163043425</v>
+        <v>0.01965871052248364</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3804947350543487</v>
+        <v>0.3857022655605685</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0366</v>
+        <v>0.0374</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.01772286005434776</v>
+        <v>0.01806794741182637</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.3931533627717398</v>
+        <v>0.3972174064910495</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0339</v>
+        <v>0.0346</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.01660326086956556</v>
+        <v>0.01682530441954069</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.4056390285326095</v>
+        <v>0.4084370251782868</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0319</v>
+        <v>0.0323</v>
       </c>
     </row>
     <row r="6">
@@ -1017,94 +1017,94 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.05378151260504204</v>
+        <v>0.04449760765550238</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1151974789915966</v>
+        <v>0.09259019138755986</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0733</v>
+        <v>0.0601</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0327731092436975</v>
+        <v>0.03181818181818191</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1277655462184874</v>
+        <v>0.1318202153110048</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0522</v>
+        <v>0.0513</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02689831932773109</v>
+        <v>0.02560562200956951</v>
       </c>
       <c r="J6" t="n">
-        <v>0.149553781512605</v>
+        <v>0.1559205741626794</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0456</v>
+        <v>0.044</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02268907563025209</v>
+        <v>0.02141148325358861</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1615495798319328</v>
+        <v>0.1708293062200956</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0398</v>
+        <v>0.0381</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02084033613445379</v>
+        <v>0.01875598086124389</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1799067226890756</v>
+        <v>0.1833522727272726</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0374</v>
+        <v>0.034</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01875714285714288</v>
+        <v>0.01661746411483261</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1902932773109244</v>
+        <v>0.1937255980861242</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0341</v>
+        <v>0.0306</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01657394957983192</v>
+        <v>0.01511327751196184</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1986966386554622</v>
+        <v>0.2021525119617223</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0306</v>
+        <v>0.0281</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01512605042016806</v>
+        <v>0.01378588516746421</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2068991596638655</v>
+        <v>0.2094239234449759</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0282</v>
+        <v>0.0259</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.01380672268907563</v>
+        <v>0.01253588516746408</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.2100504201680672</v>
+        <v>0.2143696172248802</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0259</v>
+        <v>0.0237</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.01294117647058824</v>
+        <v>0.01184210526315779</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.2211848739495798</v>
+        <v>0.2227996411483252</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0245</v>
+        <v>0.0225</v>
       </c>
     </row>
     <row r="7">
@@ -1119,94 +1119,94 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.06004228329809712</v>
+        <v>0.06489586477512754</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1618310782241015</v>
+        <v>0.1718037730153939</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0876</v>
+        <v>0.09420000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04059196617336153</v>
+        <v>0.04452158164805219</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2065302325581396</v>
+        <v>0.2269010866284339</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0678</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03383742071881624</v>
+        <v>0.03444011469966744</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2515541226215644</v>
+        <v>0.2574785692725634</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0597</v>
+        <v>0.0608</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02790697674418611</v>
+        <v>0.02850890431632886</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2703200845665961</v>
+        <v>0.2800408391186243</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0506</v>
+        <v>0.0517</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02452431289640583</v>
+        <v>0.02481134923030505</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2937071881606764</v>
+        <v>0.3026204950196205</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0453</v>
+        <v>0.0459</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02183530655391124</v>
+        <v>0.02190341080591535</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3153293868921775</v>
+        <v>0.3201506187745254</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0408</v>
+        <v>0.041</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01994143763213536</v>
+        <v>0.01986830667069066</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3315230443974628</v>
+        <v>0.3352978267431339</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0376</v>
+        <v>0.0375</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01786469344608886</v>
+        <v>0.01805765167521831</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3362295983086679</v>
+        <v>0.3454310594627235</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0339</v>
+        <v>0.0343</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01666384778012685</v>
+        <v>0.01669423483247811</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3481048625792811</v>
+        <v>0.3568798973739824</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0318</v>
+        <v>0.0319</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.01560253699788574</v>
+        <v>0.01561122849381258</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.3619177589852007</v>
+        <v>0.3677806821611843</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.0299</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8">
@@ -1221,94 +1221,94 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.06190476190476194</v>
+        <v>0.06832018038331486</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2010571428571429</v>
+        <v>0.2098489289740699</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09470000000000001</v>
+        <v>0.1031</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04365079365079363</v>
+        <v>0.04464487034949294</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2761238095238095</v>
+        <v>0.2642476888387825</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07539999999999999</v>
+        <v>0.0764</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03545952380952381</v>
+        <v>0.03533675310033844</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3313484126984128</v>
+        <v>0.3061704622322435</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0641</v>
+        <v>0.0634</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02896825396825394</v>
+        <v>0.02931228861330349</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3508595238095238</v>
+        <v>0.3283272829763246</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0535</v>
+        <v>0.0538</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02412698412698414</v>
+        <v>0.02507328072153299</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3614420634920635</v>
+        <v>0.3467417136414879</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0452</v>
+        <v>0.0468</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02088888888888892</v>
+        <v>0.021971476888388</v>
       </c>
       <c r="S8" t="n">
-        <v>0.368981746031746</v>
+        <v>0.362308229988726</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0395</v>
+        <v>0.0414</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01882857142857141</v>
+        <v>0.0197554678692223</v>
       </c>
       <c r="V8" t="n">
-        <v>0.384665873015873</v>
+        <v>0.3755934611048477</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0359</v>
+        <v>0.0375</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01726190476190474</v>
+        <v>0.01784103720405876</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4021920634920635</v>
+        <v>0.3855096956031567</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0331</v>
+        <v>0.0341</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.01550634920634921</v>
+        <v>0.01642063134160084</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4048373015873016</v>
+        <v>0.3972346110484781</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0299</v>
+        <v>0.0315</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.01444444444444445</v>
+        <v>0.01519729425028168</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.410931746031746</v>
+        <v>0.4057657271702369</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0279</v>
+        <v>0.0293</v>
       </c>
     </row>
     <row r="9">
@@ -1323,94 +1323,94 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.07785234899328852</v>
+        <v>0.08401913875598141</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1963724832214765</v>
+        <v>0.2127963636363636</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1115</v>
+        <v>0.1205</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0543624161073825</v>
+        <v>0.05799043062201003</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2620959731543624</v>
+        <v>0.2774968421052632</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09</v>
+        <v>0.0959</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0447543624161074</v>
+        <v>0.04390258373205715</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3166812080536913</v>
+        <v>0.3068447846889952</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0784</v>
+        <v>0.07679999999999999</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03724832214765096</v>
+        <v>0.0359808612440192</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3503174496644296</v>
+        <v>0.3296900478468899</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0673</v>
+        <v>0.0649</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03087248322147653</v>
+        <v>0.03050717703349245</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3619026845637585</v>
+        <v>0.3458017224880381</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0569</v>
+        <v>0.0561</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02661140939597319</v>
+        <v>0.02665578947368446</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3697335570469799</v>
+        <v>0.360113014354067</v>
       </c>
       <c r="T9" t="n">
         <v>0.0496</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02416845637583892</v>
+        <v>0.02423081339712937</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3861765100671141</v>
+        <v>0.376934928229665</v>
       </c>
       <c r="W9" t="n">
         <v>0.0455</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02214765100671138</v>
+        <v>0.02193779904306211</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.3975865771812081</v>
+        <v>0.3865044019138756</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.042</v>
+        <v>0.0415</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.02026644295302017</v>
+        <v>0.02010066985645945</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.4073181208053692</v>
+        <v>0.3964244976076554</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0386</v>
+        <v>0.0383</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.01879194630872484</v>
+        <v>0.01869856459330119</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.4196221476510068</v>
+        <v>0.4100768421052631</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.036</v>
+        <v>0.0358</v>
       </c>
     </row>
     <row r="10">
@@ -1425,94 +1425,94 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.05732689210950073</v>
+        <v>0.05418583256669644</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0900800322061192</v>
+        <v>0.08110220791168343</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0701</v>
+        <v>0.065</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03880837359098235</v>
+        <v>0.03672953081876634</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1189030595813205</v>
+        <v>0.1089721481140752</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0585</v>
+        <v>0.0549</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02985346215781012</v>
+        <v>0.02851212051517895</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1352607085346216</v>
+        <v>0.1256029208831646</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0489</v>
+        <v>0.0465</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02520128824476657</v>
+        <v>0.02405703771849055</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1503228663446055</v>
+        <v>0.1404726540938366</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0432</v>
+        <v>0.0411</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02183574879227044</v>
+        <v>0.02091076356945756</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1644262479871175</v>
+        <v>0.1518045538178478</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0386</v>
+        <v>0.0368</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01942125603864739</v>
+        <v>0.01860471481140683</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1722128824476651</v>
+        <v>0.1613452851885932</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0349</v>
+        <v>0.0334</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01749033816425128</v>
+        <v>0.01685489880404735</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1792893719806763</v>
+        <v>0.1698767479300838</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0319</v>
+        <v>0.0307</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01606280193236722</v>
+        <v>0.01547838086476503</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1873357487922705</v>
+        <v>0.1781035878564868</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0296</v>
+        <v>0.0285</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01498115942028985</v>
+        <v>0.01431350045998155</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.1950499194847021</v>
+        <v>0.1850627184912614</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0278</v>
+        <v>0.0266</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.01417069243156191</v>
+        <v>0.01349126034958637</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.2023985507246377</v>
+        <v>0.1924420193192283</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0265</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="11">
@@ -1527,94 +1527,94 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.07050359712230202</v>
+        <v>0.07478617858364602</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1190323741007195</v>
+        <v>0.1229370167635991</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0886</v>
+        <v>0.093</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05275779376498805</v>
+        <v>0.05053027711255458</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1755942446043167</v>
+        <v>0.165814710913445</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08110000000000001</v>
+        <v>0.0775</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04109640287769802</v>
+        <v>0.03944365378036215</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2015731414868107</v>
+        <v>0.1913647622305851</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0683</v>
+        <v>0.0654</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03357314148681061</v>
+        <v>0.03287718097844597</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2182916067146284</v>
+        <v>0.2125353746151218</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0582</v>
+        <v>0.0569</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0294484412470023</v>
+        <v>0.02866917550461875</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2395251798561153</v>
+        <v>0.2311387273349306</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0524</v>
+        <v>0.051</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0266901678657075</v>
+        <v>0.02557016763598959</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2606510791366908</v>
+        <v>0.2456959972630867</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0484</v>
+        <v>0.0463</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02412206235011999</v>
+        <v>0.02334635648306479</v>
       </c>
       <c r="V11" t="n">
-        <v>0.2724211031175061</v>
+        <v>0.2596872391378729</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0443</v>
+        <v>0.0428</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02212230215827347</v>
+        <v>0.02134793020868913</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.2840345323741009</v>
+        <v>0.2707368457064669</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.041</v>
+        <v>0.0396</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.02012709832134294</v>
+        <v>0.01962935340403696</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.2904095923261393</v>
+        <v>0.2797892234006168</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0376</v>
+        <v>0.0367</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.01875299760191839</v>
+        <v>0.0183236400957923</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.299022541966427</v>
+        <v>0.2890100581594263</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.0353</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="12">
@@ -1625,94 +1625,94 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>0.05360295482663987</v>
+        <v>0.05357028149682518</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1295874826861247</v>
+        <v>0.1283058907048486</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07499</v>
+        <v>0.07472000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03670494684756131</v>
+        <v>0.03622874846259714</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1706659615033597</v>
+        <v>0.16764190408045</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05991999999999999</v>
+        <v>0.05913999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02941852142386309</v>
+        <v>0.02826440323949617</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2014563530559791</v>
+        <v>0.1917257515199341</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05105000000000001</v>
+        <v>0.04901</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02423729361163053</v>
+        <v>0.02351548742455404</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2174292845492264</v>
+        <v>0.2089793489522003</v>
       </c>
       <c r="N12" t="n">
-        <v>0.04340000000000001</v>
+        <v>0.04209</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0210069140644337</v>
+        <v>0.02028572001095371</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2321959441833171</v>
+        <v>0.2227058934280633</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.03838</v>
+        <v>0.03706</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01859749003727886</v>
+        <v>0.01790248089399723</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2452841319197061</v>
+        <v>0.2343646875195589</v>
       </c>
       <c r="T12" t="n">
-        <v>0.03443</v>
+        <v>0.03316</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0168099104130496</v>
+        <v>0.01620691239741105</v>
       </c>
       <c r="V12" t="n">
-        <v>0.2561317509151922</v>
+        <v>0.2448609219235844</v>
       </c>
       <c r="W12" t="n">
-        <v>0.03146</v>
+        <v>0.03031</v>
       </c>
       <c r="X12" t="n">
-        <v>0.01530081887987501</v>
+        <v>0.01474269933609818</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.2645301129973258</v>
+        <v>0.2529067195925009</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.02885</v>
+        <v>0.0278</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01403003767026042</v>
+        <v>0.01355765873908633</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.2709741040040061</v>
+        <v>0.2606337994876906</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0266</v>
+        <v>0.02573</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.01308678104613063</v>
+        <v>0.01265228504726265</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.2790027738426867</v>
+        <v>0.2685836166083282</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.02496</v>
+        <v>0.02413</v>
       </c>
     </row>
   </sheetData>
@@ -1898,94 +1898,94 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01395348837209302</v>
+        <v>0.005315614617940199</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02325581395348837</v>
+        <v>0.008526910299003321</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0174</v>
+        <v>0.0065</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01162790697674419</v>
+        <v>0.003986710963455149</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04263720930232558</v>
+        <v>0.01323388704318937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0183</v>
+        <v>0.0061</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01085348837209302</v>
+        <v>0.004430564784053155</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06589302325581396</v>
+        <v>0.02153953488372093</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0186</v>
+        <v>0.0073</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00813953488372093</v>
+        <v>0.004318936877076415</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06589302325581396</v>
+        <v>0.02751960132890366</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0145</v>
+        <v>0.0075</v>
       </c>
       <c r="N2" t="n">
-        <v>0.007441860465116279</v>
+        <v>0.003720930232558141</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07054418604651162</v>
+        <v>0.02884850498338871</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0135</v>
+        <v>0.0066</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.006974418604651163</v>
+        <v>0.003320265780730897</v>
       </c>
       <c r="R2" t="n">
-        <v>0.09380000000000001</v>
+        <v>0.03283521594684387</v>
       </c>
       <c r="S2" t="n">
-        <v>0.013</v>
+        <v>0.006</v>
       </c>
       <c r="T2" t="n">
-        <v>0.006646511627906976</v>
+        <v>0.003039202657807308</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09845116279069767</v>
+        <v>0.0351607973421927</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0125</v>
+        <v>0.0056</v>
       </c>
       <c r="W2" t="n">
-        <v>0.005813953488372093</v>
+        <v>0.002740863787375417</v>
       </c>
       <c r="X2" t="n">
-        <v>0.09845116279069767</v>
+        <v>0.03599136212624586</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.011</v>
+        <v>0.0051</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.005162790697674419</v>
+        <v>0.002581395348837209</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.09845116279069767</v>
+        <v>0.03831694352159469</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0098</v>
+        <v>0.0048</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.004651162790697674</v>
+        <v>0.002392026578073091</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.09845116279069767</v>
+        <v>0.03997807308970101</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0089</v>
+        <v>0.0045</v>
       </c>
     </row>
     <row r="3">
@@ -1995,94 +1995,94 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07082670906200114</v>
+        <v>0.07067472820687425</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1953343402225761</v>
+        <v>0.193742575718867</v>
       </c>
       <c r="D3" t="n">
-        <v>0.104</v>
+        <v>0.1036</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04660174880762959</v>
+        <v>0.04665190610008051</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2500671502384747</v>
+        <v>0.2467892985892326</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0786</v>
+        <v>0.0785</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0359412559618433</v>
+        <v>0.0359644696131052</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2827251788553271</v>
+        <v>0.2794674188878518</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0638</v>
+        <v>0.06370000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02950119236883917</v>
+        <v>0.02973402594452746</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3048404213036578</v>
+        <v>0.3037593034148071</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0538</v>
+        <v>0.0542</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02559618441971487</v>
+        <v>0.02553578018109753</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3263077106518297</v>
+        <v>0.3221908938658574</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0475</v>
+        <v>0.0473</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02250397456279699</v>
+        <v>0.02247353033013302</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3420315779014322</v>
+        <v>0.3376309290641322</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0422</v>
+        <v>0.0421</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02026204292527763</v>
+        <v>0.02018582985607957</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3562342806041349</v>
+        <v>0.3509731244145545</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0383</v>
+        <v>0.0382</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01840222575516724</v>
+        <v>0.01835774503959241</v>
       </c>
       <c r="X3" t="n">
-        <v>0.3677305246422907</v>
+        <v>0.362978889551232</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0351</v>
+        <v>0.0349</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0169831478537356</v>
+        <v>0.01686997360129331</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.3794057829888727</v>
+        <v>0.373588163161042</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0325</v>
+        <v>0.0323</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.01585453100159008</v>
+        <v>0.01569161770132288</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.3902349761526246</v>
+        <v>0.3836666865366699</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0305</v>
+        <v>0.0302</v>
       </c>
     </row>
     <row r="4">
@@ -2092,94 +2092,94 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05878378378378373</v>
+        <v>0.06078573150156561</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1524570945945947</v>
+        <v>0.1558426849843337</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0849</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03902027027027034</v>
+        <v>0.04196191853458554</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1906974662162162</v>
+        <v>0.207742829597494</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0648</v>
+        <v>0.0698</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03244256756756776</v>
+        <v>0.03266001446131543</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2310506756756756</v>
+        <v>0.2370152084839727</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0569</v>
+        <v>0.0574</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0268581081081082</v>
+        <v>0.02707881417208889</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2484557432432432</v>
+        <v>0.2580353338153779</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0485</v>
+        <v>0.049</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02378378378378365</v>
+        <v>0.02359122680163944</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2708317567567567</v>
+        <v>0.2785886237647633</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0437</v>
+        <v>0.0435</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02121655405405414</v>
+        <v>0.02083832248734552</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2901954391891891</v>
+        <v>0.29467669317908</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0395</v>
+        <v>0.0389</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01926452702702714</v>
+        <v>0.0189101952277652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3048231418918917</v>
+        <v>0.3084697999517965</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0362</v>
+        <v>0.0356</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01731418918918929</v>
+        <v>0.01719691491925741</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3102324324324323</v>
+        <v>0.3180263919016641</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0328</v>
+        <v>0.0326</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.01608952702702699</v>
+        <v>0.01585635092793427</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.3203540540540541</v>
+        <v>0.3281648831043636</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0306</v>
+        <v>0.0303</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01506756756756745</v>
+        <v>0.01485177151120801</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.3336285472972973</v>
+        <v>0.3385678235719463</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0288</v>
+        <v>0.0285</v>
       </c>
     </row>
     <row r="5">
@@ -2189,94 +2189,94 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07054545454545444</v>
+        <v>0.07681159420289879</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1985189090909091</v>
+        <v>0.2114431677018635</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1041</v>
+        <v>0.1127</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04945454545454535</v>
+        <v>0.0518633540372667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2685232727272728</v>
+        <v>0.271414026915114</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0835</v>
+        <v>0.0871</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04049563636363648</v>
+        <v>0.03996992753623143</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3234014545454545</v>
+        <v>0.3065351966873708</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.0707</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03345454545454543</v>
+        <v>0.03291925465838473</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3505658181818181</v>
+        <v>0.3290643892339547</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0611</v>
+        <v>0.0599</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0277818181818182</v>
+        <v>0.02801242236024799</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3616916363636363</v>
+        <v>0.3462332815734992</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0516</v>
+        <v>0.0518</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02398945454545452</v>
+        <v>0.02450517598343651</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3693890909090909</v>
+        <v>0.3611208592132508</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0451</v>
+        <v>0.0459</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02172181818181818</v>
+        <v>0.02217613871635589</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3854843636363637</v>
+        <v>0.376319047619048</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0411</v>
+        <v>0.0419</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01990909090909091</v>
+        <v>0.02005693581780508</v>
       </c>
       <c r="X5" t="n">
-        <v>0.3996967272727274</v>
+        <v>0.3860477225672881</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0379</v>
+        <v>0.0381</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.01808545454545458</v>
+        <v>0.01841112836438942</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.4061814545454547</v>
+        <v>0.3967964285714289</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0346</v>
+        <v>0.0352</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.01679999999999999</v>
+        <v>0.01709109730848838</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.4156403636363638</v>
+        <v>0.4080975672877852</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0323</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="6">
@@ -2286,94 +2286,94 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06262042389210044</v>
+        <v>0.062467335992296</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1017111753371869</v>
+        <v>0.09792013478201128</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0775</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04441233140655135</v>
+        <v>0.04227754091596737</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1416778420038534</v>
+        <v>0.1318233117865502</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06759999999999999</v>
+        <v>0.064</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03437013487475915</v>
+        <v>0.03290668408746977</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1619006743737957</v>
+        <v>0.1520397056801001</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0567</v>
+        <v>0.0541</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02856454720616592</v>
+        <v>0.02760280566634635</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1776282273603082</v>
+        <v>0.1694424425801142</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0492</v>
+        <v>0.0475</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02489402697495156</v>
+        <v>0.02402970705542593</v>
       </c>
       <c r="O6" t="n">
-        <v>0.194596050096339</v>
+        <v>0.1836975244120495</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0441</v>
+        <v>0.0425</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02234142581888264</v>
+        <v>0.02140488240957116</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2077415221579959</v>
+        <v>0.1952549442992727</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0403</v>
+        <v>0.0386</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02015452793834309</v>
+        <v>0.01946451657268595</v>
       </c>
       <c r="U6" t="n">
-        <v>0.216703564547206</v>
+        <v>0.2059812818044303</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0369</v>
+        <v>0.0356</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01849710982658963</v>
+        <v>0.01783798652179949</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2261829479768784</v>
+        <v>0.2153428964379059</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0342</v>
+        <v>0.0329</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.01704845857418112</v>
+        <v>0.01645051574748936</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2333591522157995</v>
+        <v>0.2231435290881603</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0318</v>
+        <v>0.0306</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.01601156069364143</v>
+        <v>0.01543391555494439</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.2412157032755297</v>
+        <v>0.2312631412460479</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.03</v>
+        <v>0.0289</v>
       </c>
     </row>
   </sheetData>
@@ -2559,94 +2559,94 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06368866328257143</v>
+        <v>0.06172135504760711</v>
       </c>
       <c r="C2" t="n">
-        <v>0.164882538071066</v>
+        <v>0.1564132605228775</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0919</v>
+        <v>0.0885</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04182741116751207</v>
+        <v>0.04066592567535432</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2085432148900176</v>
+        <v>0.199502131155457</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0697</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03254277495769835</v>
+        <v>0.03140222780650552</v>
       </c>
       <c r="I2" t="n">
-        <v>0.237851269035534</v>
+        <v>0.2261253274053992</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0573</v>
+        <v>0.0551</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02695431472081161</v>
+        <v>0.02607161842169104</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2574943147208131</v>
+        <v>0.2463503551925735</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0488</v>
+        <v>0.0472</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02359390862944141</v>
+        <v>0.02246943410815522</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2785699153976322</v>
+        <v>0.2617886290049739</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0435</v>
+        <v>0.0414</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02071089678510942</v>
+        <v>0.01985902479099179</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2904350592216593</v>
+        <v>0.2752046634127446</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0387</v>
+        <v>0.037</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01860142131979656</v>
+        <v>0.01786637027013846</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3023289340101534</v>
+        <v>0.2866054752814929</v>
       </c>
       <c r="V2" t="n">
-        <v>0.035</v>
+        <v>0.0336</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01691201353637858</v>
+        <v>0.01624462378582092</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3119716412859572</v>
+        <v>0.2961543710433449</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0321</v>
+        <v>0.0308</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01562883248730968</v>
+        <v>0.01494021649833183</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.3211025042301197</v>
+        <v>0.3049102498429391</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0298</v>
+        <v>0.0285</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01457191201353655</v>
+        <v>0.01391871647417108</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.3293566835871417</v>
+        <v>0.3131490793988275</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0279</v>
+        <v>0.0267</v>
       </c>
     </row>
     <row r="3">
@@ -2656,94 +2656,94 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07155279503105424</v>
+        <v>0.07339742452730819</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1856193788819882</v>
+        <v>0.1900862393132045</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1033</v>
+        <v>0.1059</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04824844720496756</v>
+        <v>0.04912909290857886</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2429129192546592</v>
+        <v>0.2452946255631602</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0805</v>
+        <v>0.0819</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03755967701863275</v>
+        <v>0.03797624605342177</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2773729937888208</v>
+        <v>0.2786091205789479</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06619999999999999</v>
+        <v>0.0668</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03078260869565118</v>
+        <v>0.03142892617687267</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2990718509316779</v>
+        <v>0.3033115399623987</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0558</v>
+        <v>0.057</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02657391304347896</v>
+        <v>0.02704884884174559</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3189137888198767</v>
+        <v>0.3229063074248869</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0491</v>
+        <v>0.0499</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02352469565217292</v>
+        <v>0.02381119230906113</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3368730683229823</v>
+        <v>0.3387658696654783</v>
       </c>
       <c r="S3" t="n">
-        <v>0.044</v>
+        <v>0.0445</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02126104347826035</v>
+        <v>0.02146801234523669</v>
       </c>
       <c r="U3" t="n">
-        <v>0.351509093167703</v>
+        <v>0.352934407038214</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0401</v>
+        <v>0.0405</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0193291925465837</v>
+        <v>0.01955372663095109</v>
       </c>
       <c r="X3" t="n">
-        <v>0.3630134906832308</v>
+        <v>0.3654258114867587</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0367</v>
+        <v>0.0371</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0178118757763972</v>
+        <v>0.01798224129979682</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.3746886211180135</v>
+        <v>0.3765229841427604</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.034</v>
+        <v>0.0343</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.01666583850931732</v>
+        <v>0.01675689098584399</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.3867920248447216</v>
+        <v>0.3874883784455037</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.032</v>
+        <v>0.0321</v>
       </c>
     </row>
   </sheetData>
